--- a/LALIGA_SPREAD.xlsx
+++ b/LALIGA_SPREAD.xlsx
@@ -2924,7 +2924,7 @@
     <t>Sevilla-Barcelona</t>
   </si>
   <si>
-    <t>Alberola Rojas</t>
+    <t>Javier Alberola</t>
   </si>
   <si>
     <t>José Sánchez</t>
@@ -6115,7 +6115,7 @@
         <v>0.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="BO15" t="n">
         <v>0.0</v>
@@ -7969,7 +7969,7 @@
         <v>9.0</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="BO24" t="n">
         <v>0.0</v>
@@ -11059,7 +11059,7 @@
         <v>44.0</v>
       </c>
       <c r="BN39" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="BO39" t="n">
         <v>0.0</v>
@@ -16209,7 +16209,7 @@
         <v>79.0</v>
       </c>
       <c r="BN64" t="n">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="BO64" t="n">
         <v>0.0</v>
@@ -19711,7 +19711,7 @@
         <v>0.0</v>
       </c>
       <c r="BN81" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="BO81" t="n">
         <v>0.0</v>
@@ -23625,7 +23625,7 @@
         <v>68.0</v>
       </c>
       <c r="BN100" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="BO100" t="n">
         <v>0.0</v>
@@ -24449,7 +24449,7 @@
         <v>75.0</v>
       </c>
       <c r="BN104" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="BO104" t="n">
         <v>0.0</v>
@@ -25685,7 +25685,7 @@
         <v>50.0</v>
       </c>
       <c r="BN110" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="BO110" t="n">
         <v>1.0</v>
@@ -25891,7 +25891,7 @@
         <v>62.0</v>
       </c>
       <c r="BN111" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="BO111" t="n">
         <v>0.0</v>
@@ -29599,7 +29599,7 @@
         <v>47.0</v>
       </c>
       <c r="BN129" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BO129" t="n">
         <v>0.0</v>
@@ -32071,7 +32071,7 @@
         <v>11.0</v>
       </c>
       <c r="BN141" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="BO141" t="n">
         <v>0.0</v>
@@ -33307,7 +33307,7 @@
         <v>52.0</v>
       </c>
       <c r="BN147" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="BO147" t="n">
         <v>0.0</v>
@@ -35161,7 +35161,7 @@
         <v>0.0</v>
       </c>
       <c r="BN156" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="BO156" t="n">
         <v>0.0</v>
@@ -35779,7 +35779,7 @@
         <v>78.0</v>
       </c>
       <c r="BN159" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="BO159" t="n">
         <v>0.0</v>
@@ -35985,7 +35985,7 @@
         <v>0.0</v>
       </c>
       <c r="BN160" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="BO160" t="n">
         <v>0.0</v>
@@ -36603,7 +36603,7 @@
         <v>49.0</v>
       </c>
       <c r="BN163" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="BO163" t="n">
         <v>1.0</v>
@@ -38045,7 +38045,7 @@
         <v>39.0</v>
       </c>
       <c r="BN170" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="BO170" t="n">
         <v>1.0</v>
@@ -41341,7 +41341,7 @@
         <v>33.0</v>
       </c>
       <c r="BN186" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BO186" t="n">
         <v>1.0</v>
@@ -41753,7 +41753,7 @@
         <v>90.0</v>
       </c>
       <c r="BN188" t="n">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="BO188" t="n">
         <v>0.0</v>
@@ -44019,7 +44019,7 @@
         <v>22.0</v>
       </c>
       <c r="BN199" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="BO199" t="n">
         <v>1.0</v>
@@ -44637,7 +44637,7 @@
         <v>56.0</v>
       </c>
       <c r="BN202" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="BO202" t="n">
         <v>0.0</v>
@@ -45667,7 +45667,7 @@
         <v>61.0</v>
       </c>
       <c r="BN207" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="BO207" t="n">
         <v>0.0</v>
@@ -47521,7 +47521,7 @@
         <v>0.0</v>
       </c>
       <c r="BN216" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="BO216" t="n">
         <v>0.0</v>
@@ -47727,7 +47727,7 @@
         <v>0.0</v>
       </c>
       <c r="BN217" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="BO217" t="n">
         <v>0.0</v>
@@ -48345,7 +48345,7 @@
         <v>38.0</v>
       </c>
       <c r="BN220" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="BO220" t="n">
         <v>0.0</v>
@@ -48757,7 +48757,7 @@
         <v>75.0</v>
       </c>
       <c r="BN222" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="BO222" t="n">
         <v>0.0</v>
@@ -49993,7 +49993,7 @@
         <v>0.0</v>
       </c>
       <c r="BN228" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="BO228" t="n">
         <v>0.0</v>
@@ -50405,7 +50405,7 @@
         <v>37.0</v>
       </c>
       <c r="BN230" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="BO230" t="n">
         <v>0.0</v>
@@ -51023,7 +51023,7 @@
         <v>44.0</v>
       </c>
       <c r="BN233" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="BO233" t="n">
         <v>0.0</v>
@@ -51641,7 +51641,7 @@
         <v>0.0</v>
       </c>
       <c r="BN236" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="BO236" t="n">
         <v>0.0</v>
@@ -52053,7 +52053,7 @@
         <v>0.0</v>
       </c>
       <c r="BN238" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BO238" t="n">
         <v>0.0</v>
@@ -52877,7 +52877,7 @@
         <v>38.0</v>
       </c>
       <c r="BN242" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="BO242" t="n">
         <v>0.0</v>
@@ -53701,7 +53701,7 @@
         <v>78.0</v>
       </c>
       <c r="BN246" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="BO246" t="n">
         <v>0.0</v>
@@ -55349,7 +55349,7 @@
         <v>54.0</v>
       </c>
       <c r="BN254" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="BO254" t="n">
         <v>0.0</v>
@@ -58233,7 +58233,7 @@
         <v>0.0</v>
       </c>
       <c r="BN268" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="BO268" t="n">
         <v>0.0</v>
@@ -61117,7 +61117,7 @@
         <v>0.0</v>
       </c>
       <c r="BN282" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="BO282" t="n">
         <v>0.0</v>
@@ -61941,7 +61941,7 @@
         <v>0.0</v>
       </c>
       <c r="BN286" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="BO286" t="n">
         <v>0.0</v>
@@ -63589,7 +63589,7 @@
         <v>31.0</v>
       </c>
       <c r="BN294" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="BO294" t="n">
         <v>0.0</v>
@@ -65237,7 +65237,7 @@
         <v>0.0</v>
       </c>
       <c r="BN302" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BO302" t="n">
         <v>0.0</v>
@@ -67091,7 +67091,7 @@
         <v>56.0</v>
       </c>
       <c r="BN311" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="BO311" t="n">
         <v>1.0</v>
@@ -67503,7 +67503,7 @@
         <v>0.0</v>
       </c>
       <c r="BN313" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="BO313" t="n">
         <v>0.0</v>
@@ -68327,7 +68327,7 @@
         <v>39.0</v>
       </c>
       <c r="BN317" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="BO317" t="n">
         <v>0.0</v>
@@ -69151,7 +69151,7 @@
         <v>21.0</v>
       </c>
       <c r="BN321" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="BO321" t="n">
         <v>0.0</v>
@@ -70593,7 +70593,7 @@
         <v>0.0</v>
       </c>
       <c r="BN328" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="BO328" t="n">
         <v>0.0</v>
@@ -71211,7 +71211,7 @@
         <v>0.0</v>
       </c>
       <c r="BN331" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="BO331" t="n">
         <v>1.0</v>
@@ -71417,7 +71417,7 @@
         <v>72.0</v>
       </c>
       <c r="BN332" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="BO332" t="n">
         <v>1.0</v>
@@ -71829,7 +71829,7 @@
         <v>38.0</v>
       </c>
       <c r="BN334" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="BO334" t="n">
         <v>0.0</v>
@@ -72035,7 +72035,7 @@
         <v>28.0</v>
       </c>
       <c r="BN335" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="BO335" t="n">
         <v>1.0</v>
@@ -72241,7 +72241,7 @@
         <v>0.0</v>
       </c>
       <c r="BN336" t="n">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
       <c r="BO336" t="n">
         <v>0.0</v>
@@ -72653,7 +72653,7 @@
         <v>0.0</v>
       </c>
       <c r="BN338" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="BO338" t="n">
         <v>1.0</v>
@@ -74095,7 +74095,7 @@
         <v>0.0</v>
       </c>
       <c r="BN345" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="BO345" t="n">
         <v>0.0</v>
@@ -75125,7 +75125,7 @@
         <v>40.0</v>
       </c>
       <c r="BN350" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="BO350" t="n">
         <v>0.0</v>
@@ -75537,7 +75537,7 @@
         <v>35.0</v>
       </c>
       <c r="BN352" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BO352" t="n">
         <v>0.0</v>
@@ -76567,7 +76567,7 @@
         <v>0.0</v>
       </c>
       <c r="BN357" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="BO357" t="n">
         <v>0.0</v>
@@ -77185,7 +77185,7 @@
         <v>85.0</v>
       </c>
       <c r="BN360" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="BO360" t="n">
         <v>0.0</v>
@@ -77391,7 +77391,7 @@
         <v>29.0</v>
       </c>
       <c r="BN361" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="BO361" t="n">
         <v>0.0</v>
@@ -79245,7 +79245,7 @@
         <v>0.0</v>
       </c>
       <c r="BN370" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="BO370" t="n">
         <v>1.0</v>
@@ -80893,7 +80893,7 @@
         <v>30.0</v>
       </c>
       <c r="BN378" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BO378" t="n">
         <v>0.0</v>

--- a/LALIGA_SPREAD.xlsx
+++ b/LALIGA_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="338">
   <si>
     <t>Div</t>
   </si>
@@ -410,6 +410,60 @@
     <t>62</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>SP1</t>
   </si>
   <si>
@@ -539,6 +593,9 @@
     <t>1-5</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
     <t>5-6</t>
   </si>
   <si>
@@ -659,6 +716,9 @@
     <t>3-6</t>
   </si>
   <si>
+    <t>5-8</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -849,6 +909,60 @@
   </si>
   <si>
     <t>Betis-Mallorca</t>
+  </si>
+  <si>
+    <t>Sevilla-Valladolid</t>
+  </si>
+  <si>
+    <t>Valencia-Osasuna</t>
+  </si>
+  <si>
+    <t>Real Madrid-Alaves</t>
+  </si>
+  <si>
+    <t>Girona-Vallecano</t>
+  </si>
+  <si>
+    <t>Barcelona-Getafe</t>
+  </si>
+  <si>
+    <t>Espanol-Villarreal</t>
+  </si>
+  <si>
+    <t>Las Palmas-Betis</t>
+  </si>
+  <si>
+    <t>Celta-Ath Madrid</t>
+  </si>
+  <si>
+    <t>Valladolid-Mallorca</t>
+  </si>
+  <si>
+    <t>Getafe-Alaves</t>
+  </si>
+  <si>
+    <t>Vallecano-Leganes</t>
+  </si>
+  <si>
+    <t>Sociedad-Valencia</t>
+  </si>
+  <si>
+    <t>Osasuna-Barcelona</t>
+  </si>
+  <si>
+    <t>Celta-Girona</t>
+  </si>
+  <si>
+    <t>Ath Bilbao-Sevilla</t>
+  </si>
+  <si>
+    <t>Betis-Espanol</t>
+  </si>
+  <si>
+    <t>Ath Madrid-Real Madrid</t>
+  </si>
+  <si>
+    <t>Villarreal-Las Palmas</t>
   </si>
   <si>
     <t/>
@@ -1184,16 +1298,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45519.0</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1202,7 +1316,7 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I2" t="n">
         <v>1.0</v>
@@ -1211,7 +1325,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L2" t="n">
         <v>1.48</v>
@@ -1223,10 +1337,10 @@
         <v>8.24</v>
       </c>
       <c r="O2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="n">
         <v>7.0</v>
@@ -1274,16 +1388,16 @@
         <v>27.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AG2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ2" t="n">
         <v>5.0</v>
@@ -1292,10 +1406,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AM2" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN2" t="n">
         <v>0.3</v>
@@ -1399,16 +1513,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45519.0</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -1417,7 +1531,7 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
@@ -1426,7 +1540,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L3" t="n">
         <v>2.41</v>
@@ -1438,10 +1552,10 @@
         <v>3.07</v>
       </c>
       <c r="O3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q3" t="n">
         <v>19.0</v>
@@ -1489,16 +1603,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ3" t="n">
         <v>2.0</v>
@@ -1507,10 +1621,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AM3" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN3" t="n">
         <v>1.4</v>
@@ -1614,16 +1728,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1632,7 +1746,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1641,7 +1755,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L4" t="n">
         <v>2.05</v>
@@ -1653,10 +1767,10 @@
         <v>4.12</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q4" t="n">
         <v>6.0</v>
@@ -1704,16 +1818,16 @@
         <v>31.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="AG4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI4" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ4" t="n">
         <v>5.0</v>
@@ -1722,10 +1836,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AM4" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN4" t="n">
         <v>0.8</v>
@@ -1829,16 +1943,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
@@ -1847,7 +1961,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -1856,7 +1970,7 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L5" t="n">
         <v>2.87</v>
@@ -1868,10 +1982,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q5" t="n">
         <v>13.0</v>
@@ -1919,16 +2033,16 @@
         <v>25.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AG5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.0</v>
@@ -1937,10 +2051,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AM5" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN5" t="n">
         <v>1.4</v>
@@ -2044,16 +2158,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2062,7 +2176,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2071,7 +2185,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L6" t="n">
         <v>1.89</v>
@@ -2083,10 +2197,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q6" t="n">
         <v>16.0</v>
@@ -2134,16 +2248,16 @@
         <v>26.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG6" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH6" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI6" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ6" t="n">
         <v>5.0</v>
@@ -2152,10 +2266,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AM6" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN6" t="n">
         <v>1.7</v>
@@ -2259,16 +2373,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2277,7 +2391,7 @@
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I7" t="n">
         <v>1.0</v>
@@ -2286,7 +2400,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L7" t="n">
         <v>4.89</v>
@@ -2298,10 +2412,10 @@
         <v>1.75</v>
       </c>
       <c r="O7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="n">
         <v>6.0</v>
@@ -2349,16 +2463,16 @@
         <v>24.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ7" t="n">
         <v>5.0</v>
@@ -2367,10 +2481,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AM7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN7" t="n">
         <v>1.0</v>
@@ -2474,16 +2588,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -2492,7 +2606,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2501,7 +2615,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L8" t="n">
         <v>1.61</v>
@@ -2513,10 +2627,10 @@
         <v>6.8</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
         <v>11.0</v>
@@ -2564,16 +2678,16 @@
         <v>35.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AG8" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH8" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI8" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ8" t="n">
         <v>6.0</v>
@@ -2582,10 +2696,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AM8" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN8" t="n">
         <v>1.1</v>
@@ -2689,16 +2803,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
@@ -2707,7 +2821,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2716,7 +2830,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L9" t="n">
         <v>7.77</v>
@@ -2728,10 +2842,10 @@
         <v>1.46</v>
       </c>
       <c r="O9" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q9" t="n">
         <v>12.0</v>
@@ -2779,16 +2893,16 @@
         <v>17.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="AG9" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH9" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI9" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ9" t="n">
         <v>1.0</v>
@@ -2797,10 +2911,10 @@
         <v>1.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="AM9" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN9" t="n">
         <v>1.0</v>
@@ -2904,16 +3018,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45523.0</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F10" t="n">
         <v>1.0</v>
@@ -2922,7 +3036,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I10" t="n">
         <v>1.0</v>
@@ -2931,7 +3045,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L10" t="n">
         <v>2.39</v>
@@ -2943,10 +3057,10 @@
         <v>3.47</v>
       </c>
       <c r="O10" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q10" t="n">
         <v>12.0</v>
@@ -2994,16 +3108,16 @@
         <v>23.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AG10" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH10" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI10" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ10" t="n">
         <v>4.0</v>
@@ -3012,10 +3126,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="AM10" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN10" t="n">
         <v>0.8</v>
@@ -3119,16 +3233,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45523.0</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -3137,7 +3251,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I11" t="n">
         <v>2.0</v>
@@ -3146,7 +3260,7 @@
         <v>2.0</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L11" t="n">
         <v>3.43</v>
@@ -3158,10 +3272,10 @@
         <v>2.12</v>
       </c>
       <c r="O11" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q11" t="n">
         <v>8.0</v>
@@ -3209,16 +3323,16 @@
         <v>16.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AG11" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH11" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI11" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3227,10 +3341,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="AM11" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN11" t="n">
         <v>0.8</v>
@@ -3334,16 +3448,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -3352,7 +3466,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I12" t="n">
         <v>2.0</v>
@@ -3361,7 +3475,7 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L12" t="n">
         <v>2.17</v>
@@ -3373,10 +3487,10 @@
         <v>3.71</v>
       </c>
       <c r="O12" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q12" t="n">
         <v>7.0</v>
@@ -3424,16 +3538,16 @@
         <v>20.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AG12" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH12" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI12" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ12" t="n">
         <v>3.0</v>
@@ -3442,10 +3556,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AM12" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN12" t="n">
         <v>1.3</v>
@@ -3549,16 +3663,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F13" t="n">
         <v>1.0</v>
@@ -3567,7 +3681,7 @@
         <v>2.0</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
@@ -3576,7 +3690,7 @@
         <v>1.0</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L13" t="n">
         <v>2.45</v>
@@ -3588,10 +3702,10 @@
         <v>2.93</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q13" t="n">
         <v>15.0</v>
@@ -3639,16 +3753,16 @@
         <v>22.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="AG13" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH13" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI13" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.0</v>
@@ -3657,10 +3771,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AM13" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN13" t="n">
         <v>1.0</v>
@@ -3764,16 +3878,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F14" t="n">
         <v>1.0</v>
@@ -3782,7 +3896,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3791,7 +3905,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L14" t="n">
         <v>2.52</v>
@@ -3803,10 +3917,10 @@
         <v>3.28</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q14" t="n">
         <v>15.0</v>
@@ -3854,16 +3968,16 @@
         <v>18.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AG14" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH14" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI14" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ14" t="n">
         <v>3.0</v>
@@ -3872,10 +3986,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="AM14" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN14" t="n">
         <v>0.6</v>
@@ -3979,16 +4093,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -3997,7 +4111,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
@@ -4006,7 +4120,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L15" t="n">
         <v>1.63</v>
@@ -4018,10 +4132,10 @@
         <v>5.34</v>
       </c>
       <c r="O15" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q15" t="n">
         <v>13.0</v>
@@ -4069,16 +4183,16 @@
         <v>27.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AG15" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH15" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI15" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.0</v>
@@ -4087,10 +4201,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AM15" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN15" t="n">
         <v>1.8</v>
@@ -4194,16 +4308,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4212,7 +4326,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4221,7 +4335,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L16" t="n">
         <v>4.18</v>
@@ -4233,10 +4347,10 @@
         <v>2.11</v>
       </c>
       <c r="O16" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q16" t="n">
         <v>13.0</v>
@@ -4284,16 +4398,16 @@
         <v>32.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AG16" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH16" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI16" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ16" t="n">
         <v>4.0</v>
@@ -4302,10 +4416,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AM16" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN16" t="n">
         <v>1.6</v>
@@ -4409,16 +4523,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -4427,7 +4541,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4436,7 +4550,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L17" t="n">
         <v>2.53</v>
@@ -4448,10 +4562,10 @@
         <v>3.38</v>
       </c>
       <c r="O17" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q17" t="n">
         <v>12.0</v>
@@ -4499,16 +4613,16 @@
         <v>34.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH17" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI17" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ17" t="n">
         <v>3.0</v>
@@ -4517,10 +4631,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AM17" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN17" t="n">
         <v>0.5</v>
@@ -4624,16 +4738,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -4642,7 +4756,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -4651,7 +4765,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L18" t="n">
         <v>1.17</v>
@@ -4663,10 +4777,10 @@
         <v>16.25</v>
       </c>
       <c r="O18" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q18" t="n">
         <v>17.0</v>
@@ -4714,16 +4828,16 @@
         <v>25.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH18" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI18" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ18" t="n">
         <v>2.0</v>
@@ -4732,10 +4846,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AM18" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN18" t="n">
         <v>2.1</v>
@@ -4839,16 +4953,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -4857,7 +4971,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -4866,7 +4980,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L19" t="n">
         <v>2.33</v>
@@ -4878,10 +4992,10 @@
         <v>3.78</v>
       </c>
       <c r="O19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q19" t="n">
         <v>10.0</v>
@@ -4929,16 +5043,16 @@
         <v>21.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH19" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI19" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ19" t="n">
         <v>2.0</v>
@@ -4947,10 +5061,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AM19" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN19" t="n">
         <v>1.5</v>
@@ -5054,16 +5168,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -5072,7 +5186,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -5081,7 +5195,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L20" t="n">
         <v>2.44</v>
@@ -5093,10 +5207,10 @@
         <v>3.28</v>
       </c>
       <c r="O20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q20" t="n">
         <v>3.0</v>
@@ -5144,16 +5258,16 @@
         <v>29.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH20" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI20" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ20" t="n">
         <v>5.0</v>
@@ -5162,10 +5276,10 @@
         <v>1.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AM20" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN20" t="n">
         <v>0.2</v>
@@ -5269,16 +5383,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -5287,7 +5401,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -5296,7 +5410,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L21" t="n">
         <v>1.6</v>
@@ -5308,10 +5422,10 @@
         <v>5.47</v>
       </c>
       <c r="O21" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q21" t="n">
         <v>11.0</v>
@@ -5359,16 +5473,16 @@
         <v>21.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ21" t="n">
         <v>4.0</v>
@@ -5377,10 +5491,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AM21" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN21" t="n">
         <v>1.2</v>
@@ -5484,16 +5598,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45530.0</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F22" t="n">
         <v>4.0</v>
@@ -5502,7 +5616,7 @@
         <v>3.0</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5511,7 +5625,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L22" t="n">
         <v>1.94</v>
@@ -5523,10 +5637,10 @@
         <v>3.76</v>
       </c>
       <c r="O22" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q22" t="n">
         <v>22.0</v>
@@ -5574,16 +5688,16 @@
         <v>14.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ22" t="n">
         <v>7.0</v>
@@ -5592,10 +5706,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AM22" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN22" t="n">
         <v>3.6</v>
@@ -5699,16 +5813,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45531.0</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -5717,7 +5831,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -5726,7 +5840,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L23" t="n">
         <v>2.47</v>
@@ -5738,10 +5852,10 @@
         <v>3.33</v>
       </c>
       <c r="O23" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q23" t="n">
         <v>12.0</v>
@@ -5789,16 +5903,16 @@
         <v>25.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ23" t="n">
         <v>1.0</v>
@@ -5807,10 +5921,10 @@
         <v>1.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AM23" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN23" t="n">
         <v>0.9</v>
@@ -5914,16 +6028,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45531.0</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -5932,7 +6046,7 @@
         <v>2.0</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I24" t="n">
         <v>1.0</v>
@@ -5941,7 +6055,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L24" t="n">
         <v>5.7</v>
@@ -5953,10 +6067,10 @@
         <v>1.64</v>
       </c>
       <c r="O24" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q24" t="n">
         <v>8.0</v>
@@ -6004,16 +6118,16 @@
         <v>28.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH24" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI24" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ24" t="n">
         <v>4.0</v>
@@ -6022,10 +6136,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN24" t="n">
         <v>0.4</v>
@@ -6129,16 +6243,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45532.0</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6147,7 +6261,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I25" t="n">
         <v>1.0</v>
@@ -6156,7 +6270,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L25" t="n">
         <v>1.63</v>
@@ -6168,10 +6282,10 @@
         <v>5.96</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q25" t="n">
         <v>13.0</v>
@@ -6219,16 +6333,16 @@
         <v>23.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="AG25" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH25" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI25" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ25" t="n">
         <v>4.0</v>
@@ -6237,10 +6351,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN25" t="n">
         <v>1.4</v>
@@ -6344,16 +6458,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45532.0</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -6362,7 +6476,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -6371,7 +6485,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L26" t="n">
         <v>2.34</v>
@@ -6383,10 +6497,10 @@
         <v>3.64</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q26" t="n">
         <v>12.0</v>
@@ -6434,16 +6548,16 @@
         <v>32.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH26" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI26" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.0</v>
@@ -6452,10 +6566,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AM26" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN26" t="n">
         <v>1.1</v>
@@ -6559,16 +6673,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45532.0</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -6577,7 +6691,7 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -6586,7 +6700,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L27" t="n">
         <v>1.29</v>
@@ -6598,10 +6712,10 @@
         <v>12.02</v>
       </c>
       <c r="O27" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q27" t="n">
         <v>24.0</v>
@@ -6649,16 +6763,16 @@
         <v>15.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH27" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI27" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ27" t="n">
         <v>2.0</v>
@@ -6667,10 +6781,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN27" t="n">
         <v>2.3</v>
@@ -6774,16 +6888,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45532.0</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6792,7 +6906,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -6801,7 +6915,7 @@
         <v>1.0</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L28" t="n">
         <v>1.71</v>
@@ -6813,10 +6927,10 @@
         <v>5.78</v>
       </c>
       <c r="O28" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q28" t="n">
         <v>8.0</v>
@@ -6864,16 +6978,16 @@
         <v>28.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH28" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI28" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ28" t="n">
         <v>8.0</v>
@@ -6882,10 +6996,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="n">
         <v>1.0</v>
@@ -6989,16 +7103,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45533.0</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F29" t="n">
         <v>4.0</v>
@@ -7007,7 +7121,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -7016,7 +7130,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L29" t="n">
         <v>1.76</v>
@@ -7028,10 +7142,10 @@
         <v>4.57</v>
       </c>
       <c r="O29" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q29" t="n">
         <v>10.0</v>
@@ -7079,16 +7193,16 @@
         <v>19.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AG29" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH29" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI29" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ29" t="n">
         <v>0.0</v>
@@ -7097,10 +7211,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="AN29" t="n">
         <v>2.4</v>
@@ -7204,16 +7318,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45533.0</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F30" t="n">
         <v>1.0</v>
@@ -7222,7 +7336,7 @@
         <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -7231,7 +7345,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L30" t="n">
         <v>8.1</v>
@@ -7243,10 +7357,10 @@
         <v>1.38</v>
       </c>
       <c r="O30" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q30" t="n">
         <v>7.0</v>
@@ -7294,16 +7408,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AG30" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH30" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI30" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ30" t="n">
         <v>2.0</v>
@@ -7312,10 +7426,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="AN30" t="n">
         <v>0.8</v>
@@ -7419,16 +7533,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F31" t="n">
         <v>7.0</v>
@@ -7437,7 +7551,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I31" t="n">
         <v>3.0</v>
@@ -7446,7 +7560,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -7458,10 +7572,10 @@
         <v>11.82</v>
       </c>
       <c r="O31" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="Q31" t="n">
         <v>23.0</v>
@@ -7509,16 +7623,16 @@
         <v>18.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AG31" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH31" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI31" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ31" t="n">
         <v>3.0</v>
@@ -7527,10 +7641,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="n">
         <v>4.7</v>
@@ -7634,16 +7748,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -7652,7 +7766,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -7661,7 +7775,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L32" t="n">
         <v>3.05</v>
@@ -7673,10 +7787,10 @@
         <v>2.46</v>
       </c>
       <c r="O32" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q32" t="n">
         <v>8.0</v>
@@ -7724,16 +7838,16 @@
         <v>22.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="AG32" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH32" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI32" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ32" t="n">
         <v>4.0</v>
@@ -7742,10 +7856,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AM32" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="n">
         <v>0.3</v>
@@ -7849,16 +7963,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -7867,7 +7981,7 @@
         <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
@@ -7876,7 +7990,7 @@
         <v>1.0</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L33" t="n">
         <v>2.8</v>
@@ -7888,10 +8002,10 @@
         <v>2.92</v>
       </c>
       <c r="O33" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q33" t="n">
         <v>10.0</v>
@@ -7939,16 +8053,16 @@
         <v>30.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="AG33" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH33" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI33" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ33" t="n">
         <v>5.0</v>
@@ -7957,10 +8071,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="n">
         <v>1.6</v>
@@ -8064,16 +8178,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -8082,7 +8196,7 @@
         <v>1.0</v>
       </c>
       <c r="H34" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -8091,7 +8205,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L34" t="n">
         <v>2.6</v>
@@ -8103,10 +8217,10 @@
         <v>3.32</v>
       </c>
       <c r="O34" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q34" t="n">
         <v>4.0</v>
@@ -8154,16 +8268,16 @@
         <v>28.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AG34" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH34" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI34" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ34" t="n">
         <v>4.0</v>
@@ -8172,10 +8286,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="n">
         <v>0.3</v>
@@ -8279,16 +8393,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -8297,7 +8411,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -8306,7 +8420,7 @@
         <v>1.0</v>
       </c>
       <c r="K35" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L35" t="n">
         <v>2.81</v>
@@ -8318,10 +8432,10 @@
         <v>2.61</v>
       </c>
       <c r="O35" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q35" t="n">
         <v>22.0</v>
@@ -8369,16 +8483,16 @@
         <v>26.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AG35" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH35" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI35" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ35" t="n">
         <v>8.0</v>
@@ -8387,10 +8501,10 @@
         <v>1.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="n">
         <v>1.1</v>
@@ -8494,16 +8608,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -8512,7 +8626,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
@@ -8521,7 +8635,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L36" t="n">
         <v>1.94</v>
@@ -8533,10 +8647,10 @@
         <v>4.45</v>
       </c>
       <c r="O36" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -8584,16 +8698,16 @@
         <v>22.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="AG36" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH36" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI36" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ36" t="n">
         <v>3.0</v>
@@ -8602,10 +8716,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AM36" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="n">
         <v>2.0</v>
@@ -8709,16 +8823,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F37" t="n">
         <v>3.0</v>
@@ -8727,7 +8841,7 @@
         <v>2.0</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I37" t="n">
         <v>2.0</v>
@@ -8736,7 +8850,7 @@
         <v>1.0</v>
       </c>
       <c r="K37" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L37" t="n">
         <v>2.51</v>
@@ -8748,10 +8862,10 @@
         <v>3.0</v>
       </c>
       <c r="O37" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q37" t="n">
         <v>10.0</v>
@@ -8799,16 +8913,16 @@
         <v>29.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AG37" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH37" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI37" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ37" t="n">
         <v>2.0</v>
@@ -8817,10 +8931,10 @@
         <v>1.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AM37" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="n">
         <v>0.9</v>
@@ -8924,16 +9038,16 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -8942,7 +9056,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -8951,7 +9065,7 @@
         <v>1.0</v>
       </c>
       <c r="K38" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L38" t="n">
         <v>2.42</v>
@@ -8963,10 +9077,10 @@
         <v>2.8</v>
       </c>
       <c r="O38" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q38" t="n">
         <v>16.0</v>
@@ -9014,16 +9128,16 @@
         <v>20.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="AG38" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH38" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI38" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ38" t="n">
         <v>5.0</v>
@@ -9032,10 +9146,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AM38" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="AN38" t="n">
         <v>0.9</v>
@@ -9139,16 +9253,16 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -9157,7 +9271,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -9166,7 +9280,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L39" t="n">
         <v>3.59</v>
@@ -9178,10 +9292,10 @@
         <v>2.46</v>
       </c>
       <c r="O39" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q39" t="n">
         <v>16.0</v>
@@ -9229,16 +9343,16 @@
         <v>30.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AG39" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH39" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI39" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ39" t="n">
         <v>2.0</v>
@@ -9247,10 +9361,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AM39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="AN39" t="n">
         <v>0.6</v>
@@ -9354,16 +9468,16 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
@@ -9372,7 +9486,7 @@
         <v>0.0</v>
       </c>
       <c r="H40" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -9381,7 +9495,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L40" t="n">
         <v>1.29</v>
@@ -9393,10 +9507,10 @@
         <v>9.9</v>
       </c>
       <c r="O40" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q40" t="n">
         <v>20.0</v>
@@ -9444,16 +9558,16 @@
         <v>24.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="AG40" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH40" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI40" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ40" t="n">
         <v>2.0</v>
@@ -9462,10 +9576,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AM40" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="n">
         <v>2.4</v>
@@ -9569,16 +9683,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
@@ -9587,7 +9701,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -9596,7 +9710,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L41" t="n">
         <v>1.63</v>
@@ -9608,10 +9722,10 @@
         <v>6.37</v>
       </c>
       <c r="O41" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q41" t="n">
         <v>14.0</v>
@@ -9659,16 +9773,16 @@
         <v>29.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="AG41" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH41" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI41" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ41" t="n">
         <v>3.0</v>
@@ -9677,10 +9791,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AM41" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="n">
         <v>2.1</v>
@@ -9784,16 +9898,16 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F42" t="n">
         <v>1.0</v>
@@ -9802,7 +9916,7 @@
         <v>2.0</v>
       </c>
       <c r="H42" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -9811,7 +9925,7 @@
         <v>1.0</v>
       </c>
       <c r="K42" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L42" t="n">
         <v>2.5</v>
@@ -9823,10 +9937,10 @@
         <v>3.07</v>
       </c>
       <c r="O42" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q42" t="n">
         <v>10.0</v>
@@ -9874,16 +9988,16 @@
         <v>21.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AG42" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH42" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI42" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ42" t="n">
         <v>6.0</v>
@@ -9892,10 +10006,10 @@
         <v>1.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AM42" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="n">
         <v>0.3</v>
@@ -9999,16 +10113,16 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -10017,7 +10131,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -10026,7 +10140,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L43" t="n">
         <v>2.75</v>
@@ -10038,10 +10152,10 @@
         <v>2.91</v>
       </c>
       <c r="O43" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q43" t="n">
         <v>9.0</v>
@@ -10089,16 +10203,16 @@
         <v>31.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AG43" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH43" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI43" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ43" t="n">
         <v>5.0</v>
@@ -10107,10 +10221,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AM43" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="n">
         <v>1.6</v>
@@ -10214,16 +10328,16 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F44" t="n">
         <v>1.0</v>
@@ -10232,7 +10346,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -10241,7 +10355,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L44" t="n">
         <v>2.24</v>
@@ -10253,10 +10367,10 @@
         <v>3.72</v>
       </c>
       <c r="O44" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q44" t="n">
         <v>10.0</v>
@@ -10304,16 +10418,16 @@
         <v>34.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH44" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI44" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ44" t="n">
         <v>7.0</v>
@@ -10322,10 +10436,10 @@
         <v>1.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="AM44" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="AN44" t="n">
         <v>1.4</v>
@@ -10429,16 +10543,16 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -10447,7 +10561,7 @@
         <v>2.0</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -10456,7 +10570,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L45" t="n">
         <v>5.32</v>
@@ -10468,10 +10582,10 @@
         <v>1.69</v>
       </c>
       <c r="O45" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q45" t="n">
         <v>11.0</v>
@@ -10519,16 +10633,16 @@
         <v>21.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="AG45" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH45" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI45" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ45" t="n">
         <v>5.0</v>
@@ -10537,10 +10651,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AM45" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="AN45" t="n">
         <v>1.1</v>
@@ -10644,16 +10758,16 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -10662,7 +10776,7 @@
         <v>1.0</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I46" t="n">
         <v>2.0</v>
@@ -10671,7 +10785,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L46" t="n">
         <v>1.68</v>
@@ -10683,10 +10797,10 @@
         <v>5.11</v>
       </c>
       <c r="O46" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q46" t="n">
         <v>14.0</v>
@@ -10734,16 +10848,16 @@
         <v>29.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="AG46" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH46" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI46" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ46" t="n">
         <v>8.0</v>
@@ -10752,10 +10866,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AM46" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="AN46" t="n">
         <v>1.8</v>
@@ -10859,16 +10973,16 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F47" t="n">
         <v>1.0</v>
@@ -10877,7 +10991,7 @@
         <v>4.0</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -10886,7 +11000,7 @@
         <v>2.0</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L47" t="n">
         <v>4.2</v>
@@ -10898,10 +11012,10 @@
         <v>1.83</v>
       </c>
       <c r="O47" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Q47" t="n">
         <v>9.0</v>
@@ -10949,16 +11063,16 @@
         <v>17.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AG47" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH47" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI47" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ47" t="n">
         <v>5.0</v>
@@ -10967,10 +11081,10 @@
         <v>1.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AM47" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="AN47" t="n">
         <v>1.3</v>
@@ -11074,16 +11188,16 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F48" t="n">
         <v>2.0</v>
@@ -11092,7 +11206,7 @@
         <v>3.0</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -11101,7 +11215,7 @@
         <v>2.0</v>
       </c>
       <c r="K48" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L48" t="n">
         <v>3.9</v>
@@ -11113,10 +11227,10 @@
         <v>2.05</v>
       </c>
       <c r="O48" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Q48" t="n">
         <v>15.0</v>
@@ -11164,16 +11278,16 @@
         <v>20.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AG48" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH48" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI48" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ48" t="n">
         <v>3.0</v>
@@ -11182,10 +11296,10 @@
         <v>1.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AM48" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="AN48" t="n">
         <v>1.4</v>
@@ -11289,16 +11403,16 @@
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -11307,7 +11421,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
@@ -11316,7 +11430,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L49" t="n">
         <v>1.34</v>
@@ -11328,10 +11442,10 @@
         <v>9.9</v>
       </c>
       <c r="O49" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q49" t="n">
         <v>14.0</v>
@@ -11379,16 +11493,16 @@
         <v>18.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="AG49" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH49" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI49" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ49" t="n">
         <v>3.0</v>
@@ -11397,10 +11511,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AM49" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="AN49" t="n">
         <v>3.1</v>
@@ -11504,16 +11618,16 @@
         <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45551.0</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -11522,7 +11636,7 @@
         <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -11531,7 +11645,7 @@
         <v>1.0</v>
       </c>
       <c r="K50" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L50" t="n">
         <v>2.08</v>
@@ -11543,10 +11657,10 @@
         <v>4.13</v>
       </c>
       <c r="O50" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q50" t="n">
         <v>17.0</v>
@@ -11594,16 +11708,16 @@
         <v>27.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AG50" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH50" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI50" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ50" t="n">
         <v>5.0</v>
@@ -11612,10 +11726,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AM50" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="n">
         <v>1.6</v>
@@ -11719,16 +11833,16 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45552.0</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F51" t="n">
         <v>1.0</v>
@@ -11737,7 +11851,7 @@
         <v>0.0</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -11746,7 +11860,7 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L51" t="n">
         <v>2.94</v>
@@ -11758,10 +11872,10 @@
         <v>3.02</v>
       </c>
       <c r="O51" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q51" t="n">
         <v>10.0</v>
@@ -11809,16 +11923,16 @@
         <v>15.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AG51" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH51" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI51" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ51" t="n">
         <v>2.0</v>
@@ -11827,10 +11941,10 @@
         <v>0.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="AM51" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="AN51" t="n">
         <v>1.2</v>
@@ -11934,16 +12048,16 @@
         <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45553.0</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F52" t="n">
         <v>2.0</v>
@@ -11952,7 +12066,7 @@
         <v>1.0</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
@@ -11961,7 +12075,7 @@
         <v>0.0</v>
       </c>
       <c r="K52" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L52" t="n">
         <v>1.96</v>
@@ -11973,10 +12087,10 @@
         <v>4.84</v>
       </c>
       <c r="O52" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q52" t="n">
         <v>18.0</v>
@@ -12024,16 +12138,16 @@
         <v>30.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="AG52" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH52" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI52" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ52" t="n">
         <v>8.0</v>
@@ -12042,10 +12156,10 @@
         <v>0.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="AM52" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="AN52" t="n">
         <v>2.6</v>
@@ -12149,16 +12263,16 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45554.0</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -12167,7 +12281,7 @@
         <v>2.0</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -12176,7 +12290,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L53" t="n">
         <v>4.26</v>
@@ -12188,10 +12302,10 @@
         <v>2.07</v>
       </c>
       <c r="O53" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q53" t="n">
         <v>14.0</v>
@@ -12239,16 +12353,16 @@
         <v>23.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AG53" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH53" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI53" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ53" t="n">
         <v>3.0</v>
@@ -12257,10 +12371,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="AM53" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="AN53" t="n">
         <v>0.9</v>
@@ -12364,16 +12478,16 @@
         <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F54" t="n">
         <v>2.0</v>
@@ -12382,7 +12496,7 @@
         <v>1.0</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
@@ -12391,7 +12505,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L54" t="n">
         <v>2.2</v>
@@ -12403,10 +12517,10 @@
         <v>3.7</v>
       </c>
       <c r="O54" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q54" t="n">
         <v>10.0</v>
@@ -12454,16 +12568,16 @@
         <v>27.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="AG54" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH54" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI54" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ54" t="n">
         <v>5.0</v>
@@ -12472,10 +12586,10 @@
         <v>0.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="AM54" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="AN54" t="n">
         <v>1.1</v>
@@ -12579,16 +12693,16 @@
         <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -12597,7 +12711,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
@@ -12606,7 +12720,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L55" t="n">
         <v>3.87</v>
@@ -12618,10 +12732,10 @@
         <v>2.24</v>
       </c>
       <c r="O55" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q55" t="n">
         <v>15.0</v>
@@ -12669,16 +12783,16 @@
         <v>27.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AH55" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI55" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ55" t="n">
         <v>8.0</v>
@@ -12687,10 +12801,10 @@
         <v>0.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AM55" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="AN55" t="n">
         <v>1.0</v>
@@ -12794,16 +12908,16 @@
         <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C56" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F56" t="n">
         <v>2.0</v>
@@ -12812,7 +12926,7 @@
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I56" t="n">
         <v>1.0</v>
@@ -12821,7 +12935,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L56" t="n">
         <v>1.92</v>
@@ -12833,10 +12947,10 @@
         <v>4.51</v>
       </c>
       <c r="O56" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q56" t="n">
         <v>13.0</v>
@@ -12884,16 +12998,16 @@
         <v>25.0</v>
       </c>
       <c r="AF56" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="AG56" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH56" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI56" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ56" t="n">
         <v>7.0</v>
@@ -12902,10 +13016,10 @@
         <v>0.0</v>
       </c>
       <c r="AL56" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="AM56" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="AN56" t="n">
         <v>1.9</v>
@@ -13009,16 +13123,16 @@
         <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C57" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -13027,7 +13141,7 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
@@ -13036,7 +13150,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L57" t="n">
         <v>2.96</v>
@@ -13048,10 +13162,10 @@
         <v>2.53</v>
       </c>
       <c r="O57" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q57" t="n">
         <v>7.0</v>
@@ -13099,16 +13213,16 @@
         <v>23.0</v>
       </c>
       <c r="AF57" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AG57" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH57" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI57" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ57" t="n">
         <v>5.0</v>
@@ -13117,10 +13231,10 @@
         <v>0.0</v>
       </c>
       <c r="AL57" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="AM57" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="AN57" t="n">
         <v>0.4</v>
@@ -13224,16 +13338,16 @@
         <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C58" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F58" t="n">
         <v>4.0</v>
@@ -13242,7 +13356,7 @@
         <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
@@ -13251,7 +13365,7 @@
         <v>0.0</v>
       </c>
       <c r="K58" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L58" t="n">
         <v>1.17</v>
@@ -13263,10 +13377,10 @@
         <v>15.46</v>
       </c>
       <c r="O58" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="Q58" t="n">
         <v>31.0</v>
@@ -13314,16 +13428,16 @@
         <v>12.0</v>
       </c>
       <c r="AF58" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="AG58" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH58" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI58" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ58" t="n">
         <v>7.0</v>
@@ -13332,10 +13446,10 @@
         <v>0.0</v>
       </c>
       <c r="AL58" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="AM58" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="AN58" t="n">
         <v>4.4</v>
@@ -13439,16 +13553,16 @@
         <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F59" t="n">
         <v>1.0</v>
@@ -13457,7 +13571,7 @@
         <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
@@ -13466,7 +13580,7 @@
         <v>0.0</v>
       </c>
       <c r="K59" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L59" t="n">
         <v>2.07</v>
@@ -13478,10 +13592,10 @@
         <v>5.06</v>
       </c>
       <c r="O59" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P59" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q59" t="n">
         <v>12.0</v>
@@ -13529,16 +13643,16 @@
         <v>33.0</v>
       </c>
       <c r="AF59" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="AG59" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH59" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI59" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ59" t="n">
         <v>5.0</v>
@@ -13547,10 +13661,10 @@
         <v>0.0</v>
       </c>
       <c r="AL59" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="AM59" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="AN59" t="n">
         <v>1.5</v>
@@ -13654,16 +13768,16 @@
         <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C60" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F60" t="n">
         <v>3.0</v>
@@ -13672,7 +13786,7 @@
         <v>1.0</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I60" t="n">
         <v>2.0</v>
@@ -13681,7 +13795,7 @@
         <v>1.0</v>
       </c>
       <c r="K60" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L60" t="n">
         <v>1.72</v>
@@ -13693,10 +13807,10 @@
         <v>4.85</v>
       </c>
       <c r="O60" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q60" t="n">
         <v>10.0</v>
@@ -13744,16 +13858,16 @@
         <v>27.0</v>
       </c>
       <c r="AF60" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="AG60" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH60" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI60" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ60" t="n">
         <v>5.0</v>
@@ -13762,10 +13876,10 @@
         <v>0.0</v>
       </c>
       <c r="AL60" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="AM60" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="AN60" t="n">
         <v>0.7</v>
@@ -13869,16 +13983,16 @@
         <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C61" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F61" t="n">
         <v>1.0</v>
@@ -13887,7 +14001,7 @@
         <v>5.0</v>
       </c>
       <c r="H61" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I61" t="n">
         <v>1.0</v>
@@ -13896,7 +14010,7 @@
         <v>2.0</v>
       </c>
       <c r="K61" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L61" t="n">
         <v>3.9</v>
@@ -13908,10 +14022,10 @@
         <v>1.88</v>
       </c>
       <c r="O61" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="Q61" t="n">
         <v>13.0</v>
@@ -13959,16 +14073,16 @@
         <v>24.0</v>
       </c>
       <c r="AF61" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="AG61" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH61" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI61" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AJ61" t="n">
         <v>7.0</v>
@@ -13977,10 +14091,10 @@
         <v>0.0</v>
       </c>
       <c r="AL61" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="AM61" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="AN61" t="n">
         <v>2.2</v>
@@ -14084,16 +14198,16 @@
         <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C62" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F62" t="n">
         <v>1.0</v>
@@ -14102,7 +14216,7 @@
         <v>1.0</v>
       </c>
       <c r="H62" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I62" t="n">
         <v>1.0</v>
@@ -14111,7 +14225,7 @@
         <v>0.0</v>
       </c>
       <c r="K62" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L62" t="n">
         <v>4.96</v>
@@ -14123,10 +14237,10 @@
         <v>1.81</v>
       </c>
       <c r="O62" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P62" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q62" t="n">
         <v>15.0</v>
@@ -14174,16 +14288,16 @@
         <v>21.0</v>
       </c>
       <c r="AF62" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AG62" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH62" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AI62" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ62" t="n">
         <v>0.0</v>
@@ -14192,10 +14306,10 @@
         <v>0.0</v>
       </c>
       <c r="AL62" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="AM62" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="AN62" t="n">
         <v>1.7</v>
@@ -14299,16 +14413,16 @@
         <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C63" t="n" s="2">
         <v>45558.0</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F63" t="n">
         <v>1.0</v>
@@ -14317,7 +14431,7 @@
         <v>2.0</v>
       </c>
       <c r="H63" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I63" t="n">
         <v>1.0</v>
@@ -14326,7 +14440,7 @@
         <v>1.0</v>
       </c>
       <c r="K63" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L63" t="n">
         <v>1.88</v>
@@ -14338,10 +14452,10 @@
         <v>4.98</v>
       </c>
       <c r="O63" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P63" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q63" t="n">
         <v>14.0</v>
@@ -14389,16 +14503,16 @@
         <v>24.0</v>
       </c>
       <c r="AF63" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AG63" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AH63" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI63" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AJ63" t="n">
         <v>5.0</v>
@@ -14407,10 +14521,10 @@
         <v>0.0</v>
       </c>
       <c r="AL63" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="AM63" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="AN63" t="n">
         <v>1.0</v>
@@ -14507,6 +14621,3876 @@
       </c>
       <c r="BS63" t="n">
         <v>97.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45559.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>172</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="O64" t="s">
+        <v>174</v>
+      </c>
+      <c r="P64" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45559.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>171</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>177</v>
+      </c>
+      <c r="P65" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45559.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>172</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>172</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M66" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="N66" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="O66" t="s">
+        <v>182</v>
+      </c>
+      <c r="P66" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45560.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>171</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>171</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O67" t="s">
+        <v>177</v>
+      </c>
+      <c r="P67" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45560.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>172</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="N68" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="O68" t="s">
+        <v>174</v>
+      </c>
+      <c r="P68" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45561.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>171</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O69" t="s">
+        <v>176</v>
+      </c>
+      <c r="P69" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45561.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>171</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>171</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O70" t="s">
+        <v>176</v>
+      </c>
+      <c r="P70" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>393.0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>45561.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>171</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O71" t="s">
+        <v>177</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>171</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O72" t="s">
+        <v>177</v>
+      </c>
+      <c r="P72" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" t="s">
+        <v>167</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>172</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>172</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O73" t="s">
+        <v>174</v>
+      </c>
+      <c r="P73" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>621.0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>172</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="O74" t="s">
+        <v>174</v>
+      </c>
+      <c r="P74" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>172</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>172</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="O75" t="s">
+        <v>174</v>
+      </c>
+      <c r="P75" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>172</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="O76" t="s">
+        <v>182</v>
+      </c>
+      <c r="P76" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>159.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>171</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>173</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O77" t="s">
+        <v>175</v>
+      </c>
+      <c r="P77" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>171</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>172</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="O78" t="s">
+        <v>174</v>
+      </c>
+      <c r="P78" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>163</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>172</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>171</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="O79" t="s">
+        <v>177</v>
+      </c>
+      <c r="P79" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>91.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>171</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O80" t="s">
+        <v>177</v>
+      </c>
+      <c r="P80" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" t="n" s="2">
+        <v>45565.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>172</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>172</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="N81" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="O81" t="s">
+        <v>174</v>
+      </c>
+      <c r="P81" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
